--- a/Research/Sensors and Sampling/Sensor Matrix.xlsx
+++ b/Research/Sensors and Sampling/Sensor Matrix.xlsx
@@ -1,24 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26915"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rct47/volcanic-ash-uav/Research/Sensors and Sampling/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\My Documents\3rd Pro\ENMT401\Research\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="27720" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="27720" windowHeight="17550" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -27,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
   <si>
     <t>Sensor</t>
   </si>
@@ -120,14 +118,91 @@
   </si>
   <si>
     <t>Form factor</t>
+  </si>
+  <si>
+    <t>Off-the-shelf OPC Sensors</t>
+  </si>
+  <si>
+    <t>Inovafit SDS011</t>
+  </si>
+  <si>
+    <t>Datasheet given resolution</t>
+  </si>
+  <si>
+    <t>Cost (USD)</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>&lt;0.3um</t>
+  </si>
+  <si>
+    <t>PM2.5 Accuracy</t>
+  </si>
+  <si>
+    <t>PM10 Accuracy</t>
+  </si>
+  <si>
+    <t>Plantower PMS1003</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>PM2.5/PM10</t>
+  </si>
+  <si>
+    <t>Range (ug/m^3)</t>
+  </si>
+  <si>
+    <t>0-999.9</t>
+  </si>
+  <si>
+    <t>0-500</t>
+  </si>
+  <si>
+    <t>Build</t>
+  </si>
+  <si>
+    <t>Dust only accumulates at inlet</t>
+  </si>
+  <si>
+    <t>Large steps and drops</t>
+  </si>
+  <si>
+    <t>Plantower PMS3003</t>
+  </si>
+  <si>
+    <t>Same as 1003 just smaller</t>
+  </si>
+  <si>
+    <t>50% counting accuracy @ 0.3um, 98% @ &gt;0.5um</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>PWM and UART</t>
+  </si>
+  <si>
+    <t>33+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -219,7 +294,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -228,6 +303,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -237,6 +314,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -507,21 +587,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:P38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" customWidth="1"/>
-    <col min="8" max="8" width="13.6640625" customWidth="1"/>
-    <col min="11" max="11" width="17.1640625" customWidth="1"/>
-    <col min="14" max="14" width="12.1640625" customWidth="1"/>
-    <col min="17" max="17" width="15.1640625" customWidth="1"/>
+    <col min="4" max="4" width="20.75" customWidth="1"/>
+    <col min="6" max="6" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="14" max="14" width="12.25" customWidth="1"/>
+    <col min="17" max="17" width="15.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -554,7 +634,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -566,7 +646,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -576,7 +656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -586,7 +666,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -594,7 +674,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
@@ -603,7 +683,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -613,7 +693,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -621,7 +701,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
@@ -630,7 +710,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
@@ -640,7 +720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -650,17 +730,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
@@ -669,24 +749,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
@@ -695,34 +775,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>6</v>
       </c>
@@ -736,12 +816,159 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:I8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.125" customWidth="1"/>
+    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="11" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="6" max="6" width="42.5" customWidth="1"/>
+    <col min="7" max="7" width="19.625" customWidth="1"/>
+    <col min="8" max="8" width="16.25" customWidth="1"/>
+    <col min="9" max="9" width="11.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="8"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="H6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" t="s">
+        <v>50</v>
+      </c>
+      <c r="G8" t="s">
+        <v>47</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Research/Sensors and Sampling/Sensor Matrix.xlsx
+++ b/Research/Sensors and Sampling/Sensor Matrix.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\My Documents\3rd Pro\ENMT401\Research\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jamie\Documents\My Uni Work\3rd Pro\ENMT401\volcanic-ash-uav\Research\Sensors and Sampling\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="27720" windowHeight="17550" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10452" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
   <si>
     <t>Sensor</t>
   </si>
@@ -186,13 +186,52 @@
     <t>PWM and UART</t>
   </si>
   <si>
-    <t>33+</t>
+    <t>Sharp GP2Y10</t>
+  </si>
+  <si>
+    <t>Dust density</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Also are 5003 and 7003 models</t>
+  </si>
+  <si>
+    <t>0.5V/(0.1mg/m^3)</t>
+  </si>
+  <si>
+    <t>Analogue</t>
+  </si>
+  <si>
+    <t>AlphaSense OPC-N2</t>
+  </si>
+  <si>
+    <t>PM1/PM2.5/PM10</t>
+  </si>
+  <si>
+    <t>Assume very good</t>
+  </si>
+  <si>
+    <t>0.38-17 micron</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>Good but gets quite dirty inside</t>
+  </si>
+  <si>
+    <t>Arduino Code/Tutorial available</t>
+  </si>
+  <si>
+    <t>Yes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -587,21 +626,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="D3:P38"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.25" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="20.75" customWidth="1"/>
-    <col min="6" max="6" width="15.75" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="11" max="11" width="17.25" customWidth="1"/>
-    <col min="14" max="14" width="12.25" customWidth="1"/>
-    <col min="17" max="17" width="15.25" customWidth="1"/>
+    <col min="4" max="4" width="20.69921875" customWidth="1"/>
+    <col min="6" max="6" width="15.69921875" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="11" max="11" width="17.19921875" customWidth="1"/>
+    <col min="14" max="14" width="12.19921875" customWidth="1"/>
+    <col min="17" max="17" width="15.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D3" s="2" t="s">
         <v>1</v>
       </c>
@@ -634,7 +673,7 @@
       <c r="O3" s="3"/>
       <c r="P3" s="3"/>
     </row>
-    <row r="4" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
@@ -646,7 +685,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D5" s="1"/>
       <c r="E5" s="6"/>
       <c r="F5" s="6" t="s">
@@ -656,7 +695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
       <c r="F6" s="6" t="s">
@@ -666,7 +705,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D7" s="2"/>
       <c r="E7" s="4"/>
       <c r="F7" s="5"/>
@@ -674,7 +713,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
@@ -683,7 +722,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1"/>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
@@ -693,7 +732,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10" s="2"/>
       <c r="E10" s="5"/>
       <c r="F10" s="5"/>
@@ -701,7 +740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11" s="1" t="s">
         <v>2</v>
       </c>
@@ -710,7 +749,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
       <c r="F12" s="7" t="s">
@@ -720,7 +759,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
       <c r="F13" s="6" t="s">
@@ -730,17 +769,17 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14" s="1"/>
       <c r="E14" s="6"/>
       <c r="F14" s="6"/>
     </row>
-    <row r="15" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15" s="2"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="4:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16" s="1" t="s">
         <v>5</v>
       </c>
@@ -749,24 +788,24 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
       <c r="F17" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
       <c r="F18" s="6"/>
     </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D19" s="2"/>
       <c r="E19" s="5"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D20" s="1" t="s">
         <v>10</v>
       </c>
@@ -775,34 +814,34 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D21" s="1"/>
       <c r="E21" s="6"/>
       <c r="F21" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
       <c r="F22" s="6"/>
     </row>
-    <row r="23" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
       <c r="F23" s="6"/>
     </row>
-    <row r="24" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D24" s="1"/>
       <c r="E24" s="6"/>
       <c r="F24" s="6"/>
     </row>
-    <row r="25" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D25" s="1"/>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
     </row>
-    <row r="26" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="4:11" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>6</v>
       </c>
@@ -816,7 +855,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D38" t="s">
         <v>11</v>
       </c>
@@ -829,32 +868,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:I8"/>
+  <dimension ref="A3:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.125" customWidth="1"/>
-    <col min="2" max="2" width="13.375" customWidth="1"/>
+    <col min="1" max="1" width="19.09765625" customWidth="1"/>
+    <col min="2" max="2" width="18.09765625" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="26.875" customWidth="1"/>
-    <col min="5" max="5" width="16.25" customWidth="1"/>
+    <col min="4" max="4" width="29.3984375" customWidth="1"/>
+    <col min="5" max="5" width="16.19921875" customWidth="1"/>
     <col min="6" max="6" width="42.5" customWidth="1"/>
-    <col min="7" max="7" width="19.625" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="11.625" customWidth="1"/>
+    <col min="7" max="7" width="19.59765625" customWidth="1"/>
+    <col min="8" max="8" width="16.19921875" customWidth="1"/>
+    <col min="9" max="9" width="16.8984375" customWidth="1"/>
+    <col min="10" max="10" width="27.796875" customWidth="1"/>
+    <col min="11" max="11" width="19.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="8"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -882,8 +923,14 @@
       <c r="I5" s="8" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -894,7 +941,7 @@
         <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
         <v>43</v>
@@ -911,16 +958,19 @@
       <c r="I6" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>41</v>
       </c>
-      <c r="C7" t="s">
-        <v>53</v>
+      <c r="C7">
+        <v>33</v>
       </c>
       <c r="D7" t="s">
         <v>46</v>
@@ -941,15 +991,15 @@
         <v>52</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
       <c r="B8" t="s">
         <v>41</v>
       </c>
-      <c r="C8" t="s">
-        <v>53</v>
+      <c r="C8">
+        <v>36</v>
       </c>
       <c r="D8" t="s">
         <v>49</v>
@@ -965,6 +1015,52 @@
       </c>
       <c r="I8" t="s">
         <v>52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" t="s">
+        <v>58</v>
+      </c>
+      <c r="K9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B10" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10">
+        <v>420</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>

--- a/Research/Sensors and Sampling/Sensor Matrix.xlsx
+++ b/Research/Sensors and Sampling/Sensor Matrix.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="150000" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
   <si>
     <t>Sensor</t>
   </si>
@@ -226,6 +226,9 @@
   </si>
   <si>
     <t>Yes</t>
+  </si>
+  <si>
+    <t>Found code for Raspberry Pi</t>
   </si>
 </sst>
 </file>
@@ -870,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -886,7 +889,7 @@
     <col min="8" max="8" width="16.19921875" customWidth="1"/>
     <col min="9" max="9" width="16.8984375" customWidth="1"/>
     <col min="10" max="10" width="27.796875" customWidth="1"/>
-    <col min="11" max="11" width="19.296875" customWidth="1"/>
+    <col min="11" max="11" width="23.59765625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
@@ -990,6 +993,9 @@
       <c r="I7" t="s">
         <v>52</v>
       </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
@@ -1061,6 +1067,9 @@
       </c>
       <c r="I10" t="s">
         <v>63</v>
+      </c>
+      <c r="K10" t="s">
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Research/Sensors and Sampling/Sensor Matrix.xlsx
+++ b/Research/Sensors and Sampling/Sensor Matrix.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
   <si>
     <t>Sensor</t>
   </si>
@@ -222,13 +222,55 @@
     <t>Good but gets quite dirty inside</t>
   </si>
   <si>
-    <t>Arduino Code/Tutorial available</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
     <t>Found code for Raspberry Pi</t>
+  </si>
+  <si>
+    <t>Sharp DN7C3CA006</t>
+  </si>
+  <si>
+    <t>PM2.5</t>
+  </si>
+  <si>
+    <t>Assume quite good</t>
+  </si>
+  <si>
+    <t>From review website (where available)</t>
+  </si>
+  <si>
+    <t>Arduino Tutorial available</t>
+  </si>
+  <si>
+    <t>Also consider adding "Operating temperature" column</t>
+  </si>
+  <si>
+    <t>1V/(0.1mg/m^3)</t>
+  </si>
+  <si>
+    <t>PM2.5: 25-500</t>
+  </si>
+  <si>
+    <t>Inovafit SDS021</t>
+  </si>
+  <si>
+    <t>Size Range (um)</t>
+  </si>
+  <si>
+    <t>0.3-10</t>
+  </si>
+  <si>
+    <t>0.3ug/m^3</t>
+  </si>
+  <si>
+    <t>UART</t>
+  </si>
+  <si>
+    <t>Forum thread with code</t>
+  </si>
+  <si>
+    <t>Should be similar to SDS011</t>
   </si>
 </sst>
 </file>
@@ -871,34 +913,42 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:K10"/>
+  <dimension ref="A3:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19.09765625" customWidth="1"/>
-    <col min="2" max="2" width="18.09765625" customWidth="1"/>
-    <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="29.3984375" customWidth="1"/>
-    <col min="5" max="5" width="16.19921875" customWidth="1"/>
-    <col min="6" max="6" width="42.5" customWidth="1"/>
-    <col min="7" max="7" width="19.59765625" customWidth="1"/>
-    <col min="8" max="8" width="16.19921875" customWidth="1"/>
-    <col min="9" max="9" width="16.8984375" customWidth="1"/>
-    <col min="10" max="10" width="27.796875" customWidth="1"/>
-    <col min="11" max="11" width="23.59765625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="10.296875" customWidth="1"/>
+    <col min="4" max="4" width="28.19921875" customWidth="1"/>
+    <col min="5" max="5" width="13.8984375" customWidth="1"/>
+    <col min="6" max="6" width="16.19921875" customWidth="1"/>
+    <col min="7" max="7" width="42.5" customWidth="1"/>
+    <col min="8" max="8" width="14.8984375" customWidth="1"/>
+    <col min="9" max="9" width="24.8984375" customWidth="1"/>
+    <col min="10" max="10" width="20.3984375" customWidth="1"/>
+    <col min="11" max="11" width="16.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>31</v>
       </c>
       <c r="B3" s="8"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="J4" s="8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>0</v>
       </c>
@@ -912,28 +962,31 @@
         <v>45</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F5" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="8" t="s">
+      <c r="G5" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="H5" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="K5" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I5" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="8" t="s">
+      <c r="L5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>32</v>
       </c>
@@ -946,26 +999,26 @@
       <c r="D6" t="s">
         <v>64</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>43</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>36</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
+        <v>52</v>
+      </c>
+      <c r="I6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J6" t="s">
         <v>35</v>
       </c>
-      <c r="H6" t="s">
+      <c r="K6" t="s">
         <v>35</v>
       </c>
-      <c r="I6" t="s">
-        <v>52</v>
-      </c>
-      <c r="K6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>39</v>
       </c>
@@ -978,26 +1031,26 @@
       <c r="D7" t="s">
         <v>46</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>50</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
+        <v>52</v>
+      </c>
+      <c r="I7" t="s">
+        <v>65</v>
+      </c>
+      <c r="J7" t="s">
         <v>47</v>
       </c>
-      <c r="H7" t="s">
+      <c r="K7" t="s">
         <v>35</v>
       </c>
-      <c r="I7" t="s">
-        <v>52</v>
-      </c>
-      <c r="K7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>48</v>
       </c>
@@ -1010,23 +1063,23 @@
       <c r="D8" t="s">
         <v>49</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>50</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" t="s">
         <v>47</v>
       </c>
-      <c r="H8" t="s">
+      <c r="K8" t="s">
         <v>35</v>
       </c>
-      <c r="I8" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" t="s">
+      <c r="L8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>53</v>
       </c>
@@ -1036,20 +1089,20 @@
       <c r="C9">
         <v>6</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>44</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>57</v>
       </c>
+      <c r="H9" t="s">
+        <v>58</v>
+      </c>
       <c r="I9" t="s">
-        <v>58</v>
-      </c>
-      <c r="K9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>59</v>
       </c>
@@ -1065,11 +1118,63 @@
       <c r="E10" t="s">
         <v>62</v>
       </c>
+      <c r="H10" t="s">
+        <v>63</v>
+      </c>
       <c r="I10" t="s">
-        <v>63</v>
-      </c>
-      <c r="K10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
         <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11">
+        <v>33</v>
+      </c>
+      <c r="D11" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>58</v>
+      </c>
+      <c r="I11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>43</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/Research/Sensors and Sampling/Sensor Matrix.xlsx
+++ b/Research/Sensors and Sampling/Sensor Matrix.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="86">
   <si>
     <t>Sensor</t>
   </si>
@@ -271,6 +271,18 @@
   </si>
   <si>
     <t>Should be similar to SDS011</t>
+  </si>
+  <si>
+    <t>Shinyei PPD42NS</t>
+  </si>
+  <si>
+    <t>&gt;1 micron</t>
+  </si>
+  <si>
+    <t>0-28,000 pcs/liter</t>
+  </si>
+  <si>
+    <t>PWM</t>
   </si>
 </sst>
 </file>
@@ -913,10 +925,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:L12"/>
+  <dimension ref="A3:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1177,6 +1189,29 @@
         <v>81</v>
       </c>
     </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13">
+        <v>10.5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s">
+        <v>84</v>
+      </c>
+      <c r="H13" t="s">
+        <v>85</v>
+      </c>
+      <c r="I13" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
